--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Grn-Sort1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Grn-Sort1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>41.7016452208196</v>
+        <v>66.85111099999999</v>
       </c>
       <c r="H2">
-        <v>41.7016452208196</v>
+        <v>200.553333</v>
       </c>
       <c r="I2">
-        <v>0.0854950055767216</v>
+        <v>0.1215550702639512</v>
       </c>
       <c r="J2">
-        <v>0.0854950055767216</v>
+        <v>0.1215550702639512</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.50217222572062</v>
+        <v>3.024839333333334</v>
       </c>
       <c r="N2">
-        <v>1.50217222572062</v>
+        <v>9.074518000000001</v>
       </c>
       <c r="O2">
-        <v>0.1093262172973751</v>
+        <v>0.1801507982970389</v>
       </c>
       <c r="P2">
-        <v>0.1093262172973751</v>
+        <v>0.1801507982970388</v>
       </c>
       <c r="Q2">
-        <v>62.64305321757023</v>
+        <v>202.2138700298327</v>
       </c>
       <c r="R2">
-        <v>62.64305321757023</v>
+        <v>1819.924830268494</v>
       </c>
       <c r="S2">
-        <v>0.009346845557520959</v>
+        <v>0.02189824294510346</v>
       </c>
       <c r="T2">
-        <v>0.009346845557520959</v>
+        <v>0.02189824294510346</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>41.7016452208196</v>
+        <v>66.85111099999999</v>
       </c>
       <c r="H3">
-        <v>41.7016452208196</v>
+        <v>200.553333</v>
       </c>
       <c r="I3">
-        <v>0.0854950055767216</v>
+        <v>0.1215550702639512</v>
       </c>
       <c r="J3">
-        <v>0.0854950055767216</v>
+        <v>0.1215550702639512</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.60779792558486</v>
+        <v>1.626140333333333</v>
       </c>
       <c r="N3">
-        <v>1.60779792558486</v>
+        <v>4.878420999999999</v>
       </c>
       <c r="O3">
-        <v>0.1170135237312333</v>
+        <v>0.09684827751501936</v>
       </c>
       <c r="P3">
-        <v>0.1170135237312333</v>
+        <v>0.09684827751501934</v>
       </c>
       <c r="Q3">
-        <v>67.04781867950955</v>
+        <v>108.7092879252436</v>
       </c>
       <c r="R3">
-        <v>67.04781867950955</v>
+        <v>978.3835913271928</v>
       </c>
       <c r="S3">
-        <v>0.01000407186395363</v>
+        <v>0.01177239917828083</v>
       </c>
       <c r="T3">
-        <v>0.01000407186395363</v>
+        <v>0.01177239917828082</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>41.7016452208196</v>
+        <v>66.85111099999999</v>
       </c>
       <c r="H4">
-        <v>41.7016452208196</v>
+        <v>200.553333</v>
       </c>
       <c r="I4">
-        <v>0.0854950055767216</v>
+        <v>0.1215550702639512</v>
       </c>
       <c r="J4">
-        <v>0.0854950055767216</v>
+        <v>0.1215550702639512</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.96185002310328</v>
+        <v>4.640628666666666</v>
       </c>
       <c r="N4">
-        <v>3.96185002310328</v>
+        <v>13.921886</v>
       </c>
       <c r="O4">
-        <v>0.2883384934890652</v>
+        <v>0.2763825997921178</v>
       </c>
       <c r="P4">
-        <v>0.2883384934890652</v>
+        <v>0.2763825997921177</v>
       </c>
       <c r="Q4">
-        <v>165.2156640815489</v>
+        <v>310.2311821051152</v>
       </c>
       <c r="R4">
-        <v>165.2156640815489</v>
+        <v>2792.080638946038</v>
       </c>
       <c r="S4">
-        <v>0.02465150110883113</v>
+        <v>0.03359570633746439</v>
       </c>
       <c r="T4">
-        <v>0.02465150110883113</v>
+        <v>0.03359570633746438</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>41.7016452208196</v>
+        <v>66.85111099999999</v>
       </c>
       <c r="H5">
-        <v>41.7016452208196</v>
+        <v>200.553333</v>
       </c>
       <c r="I5">
-        <v>0.0854950055767216</v>
+        <v>0.1215550702639512</v>
       </c>
       <c r="J5">
-        <v>0.0854950055767216</v>
+        <v>0.1215550702639512</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.6684542341954</v>
+        <v>7.498988000000001</v>
       </c>
       <c r="N5">
-        <v>6.6684542341954</v>
+        <v>22.496964</v>
       </c>
       <c r="O5">
-        <v>0.4853217654823264</v>
+        <v>0.4466183243958241</v>
       </c>
       <c r="P5">
-        <v>0.4853217654823264</v>
+        <v>0.446618324395824</v>
       </c>
       <c r="Q5">
-        <v>278.0855126456888</v>
+        <v>501.315679175668</v>
       </c>
       <c r="R5">
-        <v>278.0855126456888</v>
+        <v>4511.841112581012</v>
       </c>
       <c r="S5">
-        <v>0.04149258704641587</v>
+        <v>0.05428872180310255</v>
       </c>
       <c r="T5">
-        <v>0.04149258704641587</v>
+        <v>0.05428872180310255</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>99.8627212335367</v>
+        <v>99.86393233333332</v>
       </c>
       <c r="H6">
-        <v>99.8627212335367</v>
+        <v>299.591797</v>
       </c>
       <c r="I6">
-        <v>0.204734462239042</v>
+        <v>0.1815821327429069</v>
       </c>
       <c r="J6">
-        <v>0.204734462239042</v>
+        <v>0.1815821327429069</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.50217222572062</v>
+        <v>3.024839333333334</v>
       </c>
       <c r="N6">
-        <v>1.50217222572062</v>
+        <v>9.074518000000001</v>
       </c>
       <c r="O6">
-        <v>0.1093262172973751</v>
+        <v>0.1801507982970389</v>
       </c>
       <c r="P6">
-        <v>0.1093262172973751</v>
+        <v>0.1801507982970388</v>
       </c>
       <c r="Q6">
-        <v>150.0110062218997</v>
+        <v>302.0723505032051</v>
       </c>
       <c r="R6">
-        <v>150.0110062218997</v>
+        <v>2718.651154528846</v>
       </c>
       <c r="S6">
-        <v>0.02238284430700673</v>
+        <v>0.03271216617011356</v>
       </c>
       <c r="T6">
-        <v>0.02238284430700673</v>
+        <v>0.03271216617011356</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>99.8627212335367</v>
+        <v>99.86393233333332</v>
       </c>
       <c r="H7">
-        <v>99.8627212335367</v>
+        <v>299.591797</v>
       </c>
       <c r="I7">
-        <v>0.204734462239042</v>
+        <v>0.1815821327429069</v>
       </c>
       <c r="J7">
-        <v>0.204734462239042</v>
+        <v>0.1815821327429069</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.60779792558486</v>
+        <v>1.626140333333333</v>
       </c>
       <c r="N7">
-        <v>1.60779792558486</v>
+        <v>4.878420999999999</v>
       </c>
       <c r="O7">
-        <v>0.1170135237312333</v>
+        <v>0.09684827751501936</v>
       </c>
       <c r="P7">
-        <v>0.1170135237312333</v>
+        <v>0.09684827751501934</v>
       </c>
       <c r="Q7">
-        <v>160.5590760425395</v>
+        <v>162.3927682125041</v>
       </c>
       <c r="R7">
-        <v>160.5590760425395</v>
+        <v>1461.534913912537</v>
       </c>
       <c r="S7">
-        <v>0.02395670085580942</v>
+        <v>0.01758591678365413</v>
       </c>
       <c r="T7">
-        <v>0.02395670085580942</v>
+        <v>0.01758591678365413</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>99.8627212335367</v>
+        <v>99.86393233333332</v>
       </c>
       <c r="H8">
-        <v>99.8627212335367</v>
+        <v>299.591797</v>
       </c>
       <c r="I8">
-        <v>0.204734462239042</v>
+        <v>0.1815821327429069</v>
       </c>
       <c r="J8">
-        <v>0.204734462239042</v>
+        <v>0.1815821327429069</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.96185002310328</v>
+        <v>4.640628666666666</v>
       </c>
       <c r="N8">
-        <v>3.96185002310328</v>
+        <v>13.921886</v>
       </c>
       <c r="O8">
-        <v>0.2883384934890652</v>
+        <v>0.2763825997921178</v>
       </c>
       <c r="P8">
-        <v>0.2883384934890652</v>
+        <v>0.2763825997921177</v>
       </c>
       <c r="Q8">
-        <v>395.6411244262438</v>
+        <v>463.4314271521268</v>
       </c>
       <c r="R8">
-        <v>395.6411244262438</v>
+        <v>4170.882844369142</v>
       </c>
       <c r="S8">
-        <v>0.05903282640729927</v>
+        <v>0.05018614192328204</v>
       </c>
       <c r="T8">
-        <v>0.05903282640729927</v>
+        <v>0.05018614192328203</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>99.8627212335367</v>
+        <v>99.86393233333332</v>
       </c>
       <c r="H9">
-        <v>99.8627212335367</v>
+        <v>299.591797</v>
       </c>
       <c r="I9">
-        <v>0.204734462239042</v>
+        <v>0.1815821327429069</v>
       </c>
       <c r="J9">
-        <v>0.204734462239042</v>
+        <v>0.1815821327429069</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.6684542341954</v>
+        <v>7.498988000000001</v>
       </c>
       <c r="N9">
-        <v>6.6684542341954</v>
+        <v>22.496964</v>
       </c>
       <c r="O9">
-        <v>0.4853217654823264</v>
+        <v>0.4466183243958241</v>
       </c>
       <c r="P9">
-        <v>0.4853217654823264</v>
+        <v>0.446618324395824</v>
       </c>
       <c r="Q9">
-        <v>665.9299862480526</v>
+        <v>748.8784302004786</v>
       </c>
       <c r="R9">
-        <v>665.9299862480526</v>
+        <v>6739.905871804308</v>
       </c>
       <c r="S9">
-        <v>0.09936209066892654</v>
+        <v>0.08109790786585719</v>
       </c>
       <c r="T9">
-        <v>0.09936209066892654</v>
+        <v>0.08109790786585717</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>331.556686057303</v>
+        <v>368.4456226666667</v>
       </c>
       <c r="H10">
-        <v>331.556686057303</v>
+        <v>1105.336868</v>
       </c>
       <c r="I10">
-        <v>0.6797439423161286</v>
+        <v>0.6699429954379058</v>
       </c>
       <c r="J10">
-        <v>0.6797439423161286</v>
+        <v>0.6699429954379058</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.50217222572062</v>
+        <v>3.024839333333334</v>
       </c>
       <c r="N10">
-        <v>1.50217222572062</v>
+        <v>9.074518000000001</v>
       </c>
       <c r="O10">
-        <v>0.1093262172973751</v>
+        <v>0.1801507982970389</v>
       </c>
       <c r="P10">
-        <v>0.1093262172973751</v>
+        <v>0.1801507982970388</v>
       </c>
       <c r="Q10">
-        <v>498.0552450472517</v>
+        <v>1114.488811636625</v>
       </c>
       <c r="R10">
-        <v>498.0552450472517</v>
+        <v>10030.39930472963</v>
       </c>
       <c r="S10">
-        <v>0.07431383394422746</v>
+        <v>0.1206907654416482</v>
       </c>
       <c r="T10">
-        <v>0.07431383394422746</v>
+        <v>0.1206907654416482</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>331.556686057303</v>
+        <v>368.4456226666667</v>
       </c>
       <c r="H11">
-        <v>331.556686057303</v>
+        <v>1105.336868</v>
       </c>
       <c r="I11">
-        <v>0.6797439423161286</v>
+        <v>0.6699429954379058</v>
       </c>
       <c r="J11">
-        <v>0.6797439423161286</v>
+        <v>0.6699429954379058</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.60779792558486</v>
+        <v>1.626140333333333</v>
       </c>
       <c r="N11">
-        <v>1.60779792558486</v>
+        <v>4.878420999999999</v>
       </c>
       <c r="O11">
-        <v>0.1170135237312333</v>
+        <v>0.09684827751501936</v>
       </c>
       <c r="P11">
-        <v>0.1170135237312333</v>
+        <v>0.09684827751501934</v>
       </c>
       <c r="Q11">
-        <v>533.0761520567224</v>
+        <v>599.1442876583808</v>
       </c>
       <c r="R11">
-        <v>533.0761520567224</v>
+        <v>5392.298588925428</v>
       </c>
       <c r="S11">
-        <v>0.07953923392537036</v>
+        <v>0.06488282514141365</v>
       </c>
       <c r="T11">
-        <v>0.07953923392537036</v>
+        <v>0.06488282514141364</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>331.556686057303</v>
+        <v>368.4456226666667</v>
       </c>
       <c r="H12">
-        <v>331.556686057303</v>
+        <v>1105.336868</v>
       </c>
       <c r="I12">
-        <v>0.6797439423161286</v>
+        <v>0.6699429954379058</v>
       </c>
       <c r="J12">
-        <v>0.6797439423161286</v>
+        <v>0.6699429954379058</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.96185002310328</v>
+        <v>4.640628666666666</v>
       </c>
       <c r="N12">
-        <v>3.96185002310328</v>
+        <v>13.921886</v>
       </c>
       <c r="O12">
-        <v>0.2883384934890652</v>
+        <v>0.2763825997921178</v>
       </c>
       <c r="P12">
-        <v>0.2883384934890652</v>
+        <v>0.2763825997921177</v>
       </c>
       <c r="Q12">
-        <v>1313.577864316173</v>
+        <v>1709.819318654783</v>
       </c>
       <c r="R12">
-        <v>1313.577864316173</v>
+        <v>15388.37386789305</v>
       </c>
       <c r="S12">
-        <v>0.1959963442857506</v>
+        <v>0.1851605867916473</v>
       </c>
       <c r="T12">
-        <v>0.1959963442857506</v>
+        <v>0.1851605867916473</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>331.556686057303</v>
+        <v>368.4456226666667</v>
       </c>
       <c r="H13">
-        <v>331.556686057303</v>
+        <v>1105.336868</v>
       </c>
       <c r="I13">
-        <v>0.6797439423161286</v>
+        <v>0.6699429954379058</v>
       </c>
       <c r="J13">
-        <v>0.6797439423161286</v>
+        <v>0.6699429954379058</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.6684542341954</v>
+        <v>7.498988000000001</v>
       </c>
       <c r="N13">
-        <v>6.6684542341954</v>
+        <v>22.496964</v>
       </c>
       <c r="O13">
-        <v>0.4853217654823264</v>
+        <v>0.4466183243958241</v>
       </c>
       <c r="P13">
-        <v>0.4853217654823264</v>
+        <v>0.446618324395824</v>
       </c>
       <c r="Q13">
-        <v>2210.970587014617</v>
+        <v>2762.969303029862</v>
       </c>
       <c r="R13">
-        <v>2210.970587014617</v>
+        <v>24866.72372726876</v>
       </c>
       <c r="S13">
-        <v>0.3298945301607802</v>
+        <v>0.2992088180631967</v>
       </c>
       <c r="T13">
-        <v>0.3298945301607802</v>
+        <v>0.2992088180631967</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.6459806561125</v>
+        <v>14.80496566666667</v>
       </c>
       <c r="H14">
-        <v>14.6459806561125</v>
+        <v>44.414897</v>
       </c>
       <c r="I14">
-        <v>0.03002658986810797</v>
+        <v>0.02691980155523597</v>
       </c>
       <c r="J14">
-        <v>0.03002658986810797</v>
+        <v>0.02691980155523597</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.50217222572062</v>
+        <v>3.024839333333334</v>
       </c>
       <c r="N14">
-        <v>1.50217222572062</v>
+        <v>9.074518000000001</v>
       </c>
       <c r="O14">
-        <v>0.1093262172973751</v>
+        <v>0.1801507982970389</v>
       </c>
       <c r="P14">
-        <v>0.1093262172973751</v>
+        <v>0.1801507982970388</v>
       </c>
       <c r="Q14">
-        <v>22.00078536005366</v>
+        <v>44.7826424771829</v>
       </c>
       <c r="R14">
-        <v>22.00078536005366</v>
+        <v>403.0437822946461</v>
       </c>
       <c r="S14">
-        <v>0.003282693488619932</v>
+        <v>0.004849623740173629</v>
       </c>
       <c r="T14">
-        <v>0.003282693488619932</v>
+        <v>0.004849623740173627</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.6459806561125</v>
+        <v>14.80496566666667</v>
       </c>
       <c r="H15">
-        <v>14.6459806561125</v>
+        <v>44.414897</v>
       </c>
       <c r="I15">
-        <v>0.03002658986810797</v>
+        <v>0.02691980155523597</v>
       </c>
       <c r="J15">
-        <v>0.03002658986810797</v>
+        <v>0.02691980155523597</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.60779792558486</v>
+        <v>1.626140333333333</v>
       </c>
       <c r="N15">
-        <v>1.60779792558486</v>
+        <v>4.878420999999999</v>
       </c>
       <c r="O15">
-        <v>0.1170135237312333</v>
+        <v>0.09684827751501936</v>
       </c>
       <c r="P15">
-        <v>0.1170135237312333</v>
+        <v>0.09684827751501934</v>
       </c>
       <c r="Q15">
-        <v>23.54777731705366</v>
+        <v>24.07495180418189</v>
       </c>
       <c r="R15">
-        <v>23.54777731705366</v>
+        <v>216.674566237637</v>
       </c>
       <c r="S15">
-        <v>0.00351351708609986</v>
+        <v>0.002607136411670743</v>
       </c>
       <c r="T15">
-        <v>0.00351351708609986</v>
+        <v>0.002607136411670743</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.6459806561125</v>
+        <v>14.80496566666667</v>
       </c>
       <c r="H16">
-        <v>14.6459806561125</v>
+        <v>44.414897</v>
       </c>
       <c r="I16">
-        <v>0.03002658986810797</v>
+        <v>0.02691980155523597</v>
       </c>
       <c r="J16">
-        <v>0.03002658986810797</v>
+        <v>0.02691980155523597</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.96185002310328</v>
+        <v>4.640628666666666</v>
       </c>
       <c r="N16">
-        <v>3.96185002310328</v>
+        <v>13.921886</v>
       </c>
       <c r="O16">
-        <v>0.2883384934890652</v>
+        <v>0.2763825997921178</v>
       </c>
       <c r="P16">
-        <v>0.2883384934890652</v>
+        <v>0.2763825997921177</v>
       </c>
       <c r="Q16">
-        <v>58.0251788007895</v>
+        <v>68.70434808174912</v>
       </c>
       <c r="R16">
-        <v>58.0251788007895</v>
+        <v>618.3391327357419</v>
       </c>
       <c r="S16">
-        <v>0.00865782168718428</v>
+        <v>0.007440164739724013</v>
       </c>
       <c r="T16">
-        <v>0.00865782168718428</v>
+        <v>0.00744016473972401</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.6459806561125</v>
+        <v>14.80496566666667</v>
       </c>
       <c r="H17">
-        <v>14.6459806561125</v>
+        <v>44.414897</v>
       </c>
       <c r="I17">
-        <v>0.03002658986810797</v>
+        <v>0.02691980155523597</v>
       </c>
       <c r="J17">
-        <v>0.03002658986810797</v>
+        <v>0.02691980155523597</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.6684542341954</v>
+        <v>7.498988000000001</v>
       </c>
       <c r="N17">
-        <v>6.6684542341954</v>
+        <v>22.496964</v>
       </c>
       <c r="O17">
-        <v>0.4853217654823264</v>
+        <v>0.4466183243958241</v>
       </c>
       <c r="P17">
-        <v>0.4853217654823264</v>
+        <v>0.446618324395824</v>
       </c>
       <c r="Q17">
-        <v>97.66605172019732</v>
+        <v>111.0222598747453</v>
       </c>
       <c r="R17">
-        <v>97.66605172019732</v>
+        <v>999.2003388727081</v>
       </c>
       <c r="S17">
-        <v>0.01457255760620389</v>
+        <v>0.01202287666366759</v>
       </c>
       <c r="T17">
-        <v>0.01457255760620389</v>
+        <v>0.01202287666366758</v>
       </c>
     </row>
   </sheetData>
